--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Radwanski.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Radwanski.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,12 +463,15 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:31:59.62</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45687.52221782407</v>
       </c>
       <c r="B2" t="n">
         <v>5872.3</v>
@@ -480,12 +487,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:41:40.42</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45687.52894004629</v>
       </c>
       <c r="B3" t="n">
         <v>6453.1</v>
@@ -501,12 +511,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:43:04.42</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45687.52991226852</v>
       </c>
       <c r="B4" t="n">
         <v>6537.1</v>
@@ -522,12 +535,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:31:59.52</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45687.52221666666</v>
       </c>
       <c r="B5" t="n">
         <v>5872.2</v>
@@ -543,12 +559,15 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:41:40.32</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45687.52893888889</v>
       </c>
       <c r="B6" t="n">
         <v>6453</v>
@@ -564,12 +583,15 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:43:04.12</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45687.5299087963</v>
       </c>
       <c r="B7" t="n">
         <v>6536.8</v>
@@ -585,382 +607,819 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:16:13.89</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>45684.59316655093</v>
       </c>
       <c r="B8" t="n">
+        <v>649.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.932151181357247</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45684.5934119213</v>
+      </c>
+      <c r="B9" t="n">
+        <v>670.7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.690911122730802</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45684.59393738426</v>
+      </c>
+      <c r="B10" t="n">
+        <v>716.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.561549782752989</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45684.59316192129</v>
+      </c>
+      <c r="B11" t="n">
+        <v>649.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.796783328056336</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45684.59367928241</v>
+      </c>
+      <c r="B12" t="n">
+        <v>693.8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.830259135791233</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45684.59391886574</v>
+      </c>
+      <c r="B13" t="n">
+        <v>714.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.842219471931458</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45684.59460520833</v>
+      </c>
+      <c r="B14" t="n">
         <v>773.8</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C14" t="n">
         <v>11.06</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D14" t="n">
         <v>3.134477002280099</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:16:19.19</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45684.59466655093</v>
+      </c>
+      <c r="B15" t="n">
         <v>779.1</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C15" t="n">
         <v>10.42</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D15" t="n">
         <v>3.115295784814017</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:16:25.19</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45684.59473599537</v>
+      </c>
+      <c r="B16" t="n">
         <v>785.1</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C16" t="n">
         <v>10.86</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D16" t="n">
         <v>3.2712596143995</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:16:13.79</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45684.59460405092</v>
+      </c>
+      <c r="B17" t="n">
         <v>773.7</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C17" t="n">
         <v>9.99</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D17" t="n">
         <v>3.193511383874075</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:16:19.09</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45684.59466539352</v>
+      </c>
+      <c r="B18" t="n">
         <v>779</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C18" t="n">
         <v>9.42</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D18" t="n">
         <v>3.056970936911446</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:16:25.09</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45684.59473483796</v>
+      </c>
+      <c r="B19" t="n">
         <v>785</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C19" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D19" t="n">
         <v>3.2383485521589</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:37:53.17</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45685.65130983797</v>
+      </c>
+      <c r="B20" t="n">
         <v>1388.1</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C20" t="n">
         <v>13.59</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D20" t="n">
         <v>3.676808357238768</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:51:58.67</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45685.66109571759</v>
+      </c>
+      <c r="B21" t="n">
         <v>2233.6</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C21" t="n">
         <v>11.33</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D21" t="n">
         <v>3.210851396833146</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:52:01.17</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45685.66112465278</v>
+      </c>
+      <c r="B22" t="n">
         <v>2236.1</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C22" t="n">
         <v>13.86</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D22" t="n">
         <v>3.511942522866386</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:37:52.87</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685.65130636574</v>
+      </c>
+      <c r="B23" t="n">
         <v>1387.8</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C23" t="n">
         <v>9.720000000000001</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D23" t="n">
         <v>3.443315301622663</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:51:58.57</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45685.65587581018</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1782.6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.725719043186733</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45685.66109456019</v>
+      </c>
+      <c r="B25" t="n">
         <v>2233.5</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C25" t="n">
         <v>9.76</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D25" t="n">
         <v>3.048933403832571</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>28.01.2025 16:13:38.87</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45685.66948229167</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2958.2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.829279439789907</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45685.67614664352</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3534</v>
+      </c>
+      <c r="C27" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.119807311466759</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45685.67821261574</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3712.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.044049058641705</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45685.66948113426</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2958.1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.919103758675711</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45685.6761443287</v>
+      </c>
+      <c r="B30" t="n">
         <v>3533.8</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C30" t="n">
         <v>8.99</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D30" t="n">
         <v>2.961176872253416</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:18:51.57</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4379.4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3.09486528805324</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:34:12.77</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5300.6</v>
-      </c>
-      <c r="C21" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3.261861767087663</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:36:28.47</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>5436.3</v>
-      </c>
-      <c r="C22" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3.14089366367885</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:18:12.97</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>4340.8</v>
-      </c>
-      <c r="C23" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3.068400485174996</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:18:51.47</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>4379.3</v>
-      </c>
-      <c r="C24" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3.05615040234157</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:28:53.17</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>4981</v>
-      </c>
-      <c r="C25" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2.850142172404697</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>5-10</t>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45685.67821030092</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3712.3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.861920424870082</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45686.47614664352</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1186.9</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8203748975481303</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45686.47821030093</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1365.2</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.4794053392750878</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45686.47891631944</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1426.2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5369732209614344</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45686.48759224537</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2175.8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.528612136840823</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45686.48794293981</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2206.1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.773899997983659</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45686.49236886574</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2588.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.638877425874985</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45686.487940625</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2205.9</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.577154687472753</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45686.49347650463</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2684.2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.581018277576991</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45686.49419409722</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2746.2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.511234283447266</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
         </is>
       </c>
     </row>
